--- a/scan_sort/plots/Sort Comparison.xlsx
+++ b/scan_sort/plots/Sort Comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="19008" windowHeight="7512" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="19008" windowHeight="7512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sort Int" sheetId="4" r:id="rId1"/>
@@ -556,11 +556,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="73556352"/>
-        <c:axId val="73557888"/>
+        <c:axId val="84563840"/>
+        <c:axId val="84565376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73556352"/>
+        <c:axId val="84563840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,7 +569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73557888"/>
+        <c:crossAx val="84565376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -577,7 +577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73557888"/>
+        <c:axId val="84565376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800000000"/>
@@ -586,11 +586,30 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>keys/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73556352"/>
+        <c:crossAx val="84563840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100000000"/>
@@ -1030,11 +1049,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100173312"/>
-        <c:axId val="100174848"/>
+        <c:axId val="85918848"/>
+        <c:axId val="85920384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100173312"/>
+        <c:axId val="85918848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100174848"/>
+        <c:crossAx val="85920384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1051,18 +1070,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100174848"/>
+        <c:axId val="85920384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>keys/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100173312"/>
+        <c:crossAx val="85918848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1267,11 +1305,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79655296"/>
-        <c:axId val="79656832"/>
+        <c:axId val="85977728"/>
+        <c:axId val="86057344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79655296"/>
+        <c:axId val="85977728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79656832"/>
+        <c:crossAx val="86057344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1288,7 +1326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79656832"/>
+        <c:axId val="86057344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79655296"/>
+        <c:crossAx val="85977728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,7 +3600,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3863,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4165,7 +4203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
